--- a/Code/Results/Cases/Case_5_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_173/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60110704626409</v>
+        <v>26.99883753119568</v>
       </c>
       <c r="C2">
-        <v>11.99079360833443</v>
+        <v>8.855210140476471</v>
       </c>
       <c r="D2">
-        <v>6.746036906718042</v>
+        <v>4.950014309062876</v>
       </c>
       <c r="E2">
-        <v>6.027518018986962</v>
+        <v>9.36672272388174</v>
       </c>
       <c r="F2">
-        <v>67.75288700026093</v>
+        <v>68.30292685251175</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.900746546140716</v>
+        <v>10.29205657185642</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.761461798232718</v>
+        <v>11.32679254332443</v>
       </c>
       <c r="M2">
-        <v>12.90496155775511</v>
+        <v>21.31983020993014</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.48088154915952</v>
+        <v>26.93403177437474</v>
       </c>
       <c r="C3">
-        <v>11.08046446463318</v>
+        <v>8.667509640607413</v>
       </c>
       <c r="D3">
-        <v>6.383072554163012</v>
+        <v>4.805650973200032</v>
       </c>
       <c r="E3">
-        <v>5.966713911994603</v>
+        <v>9.353242005042658</v>
       </c>
       <c r="F3">
-        <v>64.81376591816542</v>
+        <v>67.57095694723468</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.875264438260233</v>
+        <v>10.28563853136753</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.804736359690835</v>
+        <v>11.36752994719738</v>
       </c>
       <c r="M3">
-        <v>12.60753986810529</v>
+        <v>21.36956271853749</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.79115018235613</v>
+        <v>26.90388259944216</v>
       </c>
       <c r="C4">
-        <v>10.49778289145644</v>
+        <v>8.555596636862379</v>
       </c>
       <c r="D4">
-        <v>6.154848854245463</v>
+        <v>4.714771103798084</v>
       </c>
       <c r="E4">
-        <v>5.929740666516324</v>
+        <v>9.344773203179127</v>
       </c>
       <c r="F4">
-        <v>62.99207093148097</v>
+        <v>67.12492011574486</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.860273906199472</v>
+        <v>10.28170200439342</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.835063646306469</v>
+        <v>11.39432731145436</v>
       </c>
       <c r="M4">
-        <v>12.4361748216367</v>
+        <v>21.40543528162786</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.50986410850444</v>
+        <v>26.89402894073283</v>
       </c>
       <c r="C5">
-        <v>10.25418180264397</v>
+        <v>8.51091901792311</v>
       </c>
       <c r="D5">
-        <v>6.060511498143669</v>
+        <v>4.677211216438799</v>
       </c>
       <c r="E5">
-        <v>5.914737082910658</v>
+        <v>9.341273557804922</v>
       </c>
       <c r="F5">
-        <v>62.24573075750521</v>
+        <v>66.94413012048187</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.854310862295527</v>
+        <v>10.28009848419244</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.84833892124382</v>
+        <v>11.40569693194422</v>
       </c>
       <c r="M5">
-        <v>12.36913855448753</v>
+        <v>21.42139290878839</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.46315307278617</v>
+        <v>26.89253982718391</v>
       </c>
       <c r="C6">
-        <v>10.21335534328708</v>
+        <v>8.503558944484322</v>
       </c>
       <c r="D6">
-        <v>6.044767039511583</v>
+        <v>4.670943836673716</v>
       </c>
       <c r="E6">
-        <v>5.912248829431667</v>
+        <v>9.340689502033173</v>
       </c>
       <c r="F6">
-        <v>62.12157248920036</v>
+        <v>66.91417232428827</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.853328979156364</v>
+        <v>10.27983224811904</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.85059786637122</v>
+        <v>11.40761201876157</v>
       </c>
       <c r="M6">
-        <v>12.35817518056088</v>
+        <v>21.42412346553703</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.78735712167739</v>
+        <v>26.90373985277463</v>
       </c>
       <c r="C7">
-        <v>10.49452274768018</v>
+        <v>8.55499022549264</v>
       </c>
       <c r="D7">
-        <v>6.153581957972885</v>
+        <v>4.714266634325768</v>
       </c>
       <c r="E7">
-        <v>5.929538100597099</v>
+        <v>9.344726202757967</v>
       </c>
       <c r="F7">
-        <v>62.98202115494823</v>
+        <v>67.12247782044363</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.860192920466478</v>
+        <v>10.2816803766767</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.835239004817054</v>
+        <v>11.39447882517588</v>
       </c>
       <c r="M7">
-        <v>12.4352594673737</v>
+        <v>21.40564507281403</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.21538266571408</v>
+        <v>26.97449698402177</v>
       </c>
       <c r="C8">
-        <v>11.68172039865942</v>
+        <v>8.789852399693379</v>
       </c>
       <c r="D8">
-        <v>6.622002040772131</v>
+        <v>4.900724548217865</v>
       </c>
       <c r="E8">
-        <v>6.006460398076709</v>
+        <v>9.362114114223271</v>
       </c>
       <c r="F8">
-        <v>66.74315753167225</v>
+        <v>68.04991154310349</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.891812135108369</v>
+        <v>10.28984252091194</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.77558553392941</v>
+        <v>11.34046889989923</v>
       </c>
       <c r="M8">
-        <v>12.800053867459</v>
+        <v>21.33586884454492</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99353824989399</v>
+        <v>27.18926813475761</v>
       </c>
       <c r="C9">
-        <v>13.8310460128497</v>
+        <v>9.272940826567737</v>
       </c>
       <c r="D9">
-        <v>7.498488990657679</v>
+        <v>5.247080012838111</v>
       </c>
       <c r="E9">
-        <v>6.161594403624328</v>
+        <v>9.394708957835144</v>
       </c>
       <c r="F9">
-        <v>73.97828352632028</v>
+        <v>69.8901845378369</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.959993713772991</v>
+        <v>10.30590026089227</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.689825061878718</v>
+        <v>11.24868034554166</v>
       </c>
       <c r="M9">
-        <v>13.60656106619589</v>
+        <v>21.24149060556588</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0189010880448</v>
+        <v>27.39254815304925</v>
       </c>
       <c r="C10">
-        <v>15.31666859898382</v>
+        <v>9.63637125822431</v>
       </c>
       <c r="D10">
-        <v>8.119078431236227</v>
+        <v>5.487965326197667</v>
       </c>
       <c r="E10">
-        <v>6.280538889465334</v>
+        <v>9.417765620330137</v>
       </c>
       <c r="F10">
-        <v>79.2154120201907</v>
+        <v>71.2481106251748</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.015418417884667</v>
+        <v>10.31775597773338</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.648092680873503</v>
+        <v>11.18980813921334</v>
       </c>
       <c r="M10">
-        <v>14.25832104307189</v>
+        <v>21.19816546756408</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.02911734670865</v>
+        <v>27.49465878587691</v>
       </c>
       <c r="C11">
-        <v>15.97641014241317</v>
+        <v>9.802490193877226</v>
       </c>
       <c r="D11">
-        <v>8.397321110341805</v>
+        <v>5.594271378806273</v>
       </c>
       <c r="E11">
-        <v>6.336382804566772</v>
+        <v>9.428066808892677</v>
       </c>
       <c r="F11">
-        <v>81.58679072187496</v>
+        <v>71.86558032317369</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.042213034817994</v>
+        <v>10.32316779890953</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.634321682417928</v>
+        <v>11.16487592193091</v>
       </c>
       <c r="M11">
-        <v>14.56894589988977</v>
+        <v>21.18412688121868</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42060698224968</v>
+        <v>27.53468636228575</v>
       </c>
       <c r="C12">
-        <v>16.22434776269753</v>
+        <v>9.865425677904792</v>
       </c>
       <c r="D12">
-        <v>8.502219072866342</v>
+        <v>5.634031928620238</v>
       </c>
       <c r="E12">
-        <v>6.357846573475888</v>
+        <v>9.43194106613282</v>
       </c>
       <c r="F12">
-        <v>82.48400829996118</v>
+        <v>72.09923139851941</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.052629574073823</v>
+        <v>10.32522023419785</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.62991563260926</v>
+        <v>11.1556999225716</v>
       </c>
       <c r="M12">
-        <v>14.68875546241545</v>
+        <v>21.17962741773692</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.33637752820191</v>
+        <v>27.52600563102514</v>
       </c>
       <c r="C13">
-        <v>16.1710266362388</v>
+        <v>9.85187135914593</v>
       </c>
       <c r="D13">
-        <v>8.479645925505327</v>
+        <v>5.625491171586563</v>
       </c>
       <c r="E13">
-        <v>6.353208658010106</v>
+        <v>9.431107851751626</v>
       </c>
       <c r="F13">
-        <v>82.29079463144217</v>
+        <v>72.04892020073682</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.050373418827226</v>
+        <v>10.32477806111901</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.630827545227747</v>
+        <v>11.15766434874583</v>
       </c>
       <c r="M13">
-        <v>14.66285234462251</v>
+        <v>21.18056012082165</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.06136447333576</v>
+        <v>27.49792476702464</v>
       </c>
       <c r="C14">
-        <v>15.99684337498364</v>
+        <v>9.80766780163197</v>
       </c>
       <c r="D14">
-        <v>8.405959681929735</v>
+        <v>5.597552559716158</v>
       </c>
       <c r="E14">
-        <v>6.338141857956686</v>
+        <v>9.428386076934377</v>
       </c>
       <c r="F14">
-        <v>81.66061510780783</v>
+        <v>71.88480713514204</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.043064327994755</v>
+        <v>10.32333658952548</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.633942614489245</v>
+        <v>11.16411569351626</v>
       </c>
       <c r="M14">
-        <v>14.57875792944581</v>
+        <v>21.18374033489761</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.89265322689239</v>
+        <v>27.48090080556745</v>
       </c>
       <c r="C15">
-        <v>15.8899183830054</v>
+        <v>9.780593313405776</v>
       </c>
       <c r="D15">
-        <v>8.360768053867378</v>
+        <v>5.58037417507296</v>
       </c>
       <c r="E15">
-        <v>6.328956498451071</v>
+        <v>9.426715460846156</v>
       </c>
       <c r="F15">
-        <v>81.27454058595382</v>
+        <v>71.78425687328188</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.038623851059914</v>
+        <v>10.32245406228907</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.635957914991345</v>
+        <v>11.16810185952449</v>
       </c>
       <c r="M15">
-        <v>14.52753718780776</v>
+        <v>21.18579469056924</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95878496846226</v>
+        <v>27.38606680719595</v>
       </c>
       <c r="C16">
-        <v>15.27326369172027</v>
+        <v>9.625523651884436</v>
       </c>
       <c r="D16">
-        <v>8.100822158948722</v>
+        <v>5.480949946971476</v>
       </c>
       <c r="E16">
-        <v>6.276929747252531</v>
+        <v>9.417088673912771</v>
       </c>
       <c r="F16">
-        <v>79.06027795386925</v>
+        <v>71.20774084045136</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.013702627193655</v>
+        <v>10.31740271275294</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.649102397640172</v>
+        <v>11.19147467410657</v>
       </c>
       <c r="M16">
-        <v>14.23831719370179</v>
+        <v>21.1991971388075</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.4317850593653</v>
+        <v>27.33034042811799</v>
       </c>
       <c r="C17">
-        <v>14.89112522513946</v>
+        <v>9.530535201172455</v>
       </c>
       <c r="D17">
-        <v>7.9403863088939</v>
+        <v>5.41909965947002</v>
       </c>
       <c r="E17">
-        <v>6.245501526839635</v>
+        <v>9.411135215614816</v>
       </c>
       <c r="F17">
-        <v>77.6995653918535</v>
+        <v>70.85390506350286</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.998847422705085</v>
+        <v>10.31430893642217</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.658540622566415</v>
+        <v>11.20628629167107</v>
       </c>
       <c r="M17">
-        <v>14.06460316164619</v>
+        <v>21.20887240952101</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12848998400455</v>
+        <v>27.29919691311299</v>
       </c>
       <c r="C18">
-        <v>14.66978725147453</v>
+        <v>9.475979732572858</v>
       </c>
       <c r="D18">
-        <v>7.847716173501285</v>
+        <v>5.383218151834826</v>
       </c>
       <c r="E18">
-        <v>6.227583491631672</v>
+        <v>9.40769328245508</v>
       </c>
       <c r="F18">
-        <v>76.91581743446021</v>
+        <v>70.6503718086049</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.990449039940512</v>
+        <v>10.31253120320322</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.664455916989503</v>
+        <v>11.21497961817071</v>
       </c>
       <c r="M18">
-        <v>13.9660065863227</v>
+        <v>21.21497102568563</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.02576178704038</v>
+        <v>27.28880907440381</v>
       </c>
       <c r="C19">
-        <v>14.59456952932526</v>
+        <v>9.45752445657614</v>
       </c>
       <c r="D19">
-        <v>7.816269305667017</v>
+        <v>5.371017374245121</v>
       </c>
       <c r="E19">
-        <v>6.221542151731947</v>
+        <v>9.406524858460626</v>
       </c>
       <c r="F19">
-        <v>76.65024449624282</v>
+        <v>70.58146025939027</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.987629375564902</v>
+        <v>10.31192957672926</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.666540665113282</v>
+        <v>11.21795294534452</v>
       </c>
       <c r="M19">
-        <v>13.93284621473514</v>
+        <v>21.21712752355839</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.48790183466533</v>
+        <v>27.33617871176617</v>
       </c>
       <c r="C20">
-        <v>14.93196130032871</v>
+        <v>9.54063929237649</v>
       </c>
       <c r="D20">
-        <v>7.957504762651968</v>
+        <v>5.42571567213218</v>
       </c>
       <c r="E20">
-        <v>6.248830248023024</v>
+        <v>9.411770796634006</v>
       </c>
       <c r="F20">
-        <v>77.84452467012994</v>
+        <v>70.89157414663626</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.000413395275568</v>
+        <v>10.31463809259728</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.657485138864233</v>
+        <v>11.20469155791028</v>
       </c>
       <c r="M20">
-        <v>14.08295785243718</v>
+        <v>21.20778721868611</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.1421952264813</v>
+        <v>27.5061360892674</v>
       </c>
       <c r="C21">
-        <v>16.04805286302249</v>
+        <v>9.820651295967245</v>
       </c>
       <c r="D21">
-        <v>8.427614670246244</v>
+        <v>5.605772430462021</v>
       </c>
       <c r="E21">
-        <v>6.342558139662323</v>
+        <v>9.429186246581644</v>
       </c>
       <c r="F21">
-        <v>81.84572710477454</v>
+        <v>71.93301683302113</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.045203480877059</v>
+        <v>10.32375989728367</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.63300517757682</v>
+        <v>11.16221358198017</v>
       </c>
       <c r="M21">
-        <v>14.60339782518527</v>
+        <v>21.1827840571037</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.27835599034763</v>
+        <v>27.62512947706044</v>
       </c>
       <c r="C22">
-        <v>16.76670565074985</v>
+        <v>10.00379357003597</v>
       </c>
       <c r="D22">
-        <v>8.732219491132456</v>
+        <v>5.720553678965331</v>
       </c>
       <c r="E22">
-        <v>6.405703248979125</v>
+        <v>9.440413497980035</v>
       </c>
       <c r="F22">
-        <v>84.45684526768645</v>
+        <v>72.61260016147503</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.076075676046393</v>
+        <v>10.32973976651222</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.621754489067482</v>
+        <v>11.1359978157558</v>
       </c>
       <c r="M22">
-        <v>14.95636467189564</v>
+        <v>21.1712034055803</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6728754480889</v>
+        <v>27.56090516870082</v>
       </c>
       <c r="C23">
-        <v>16.38397446681644</v>
+        <v>9.906061046902119</v>
       </c>
       <c r="D23">
-        <v>8.569839595152827</v>
+        <v>5.659565205970705</v>
       </c>
       <c r="E23">
-        <v>6.371802851475018</v>
+        <v>9.434435340030136</v>
       </c>
       <c r="F23">
-        <v>83.06325035247546</v>
+        <v>72.25003469091578</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.059436155757047</v>
+        <v>10.32654638898512</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.627302676640236</v>
+        <v>11.14984839454339</v>
       </c>
       <c r="M23">
-        <v>14.76674295347993</v>
+        <v>21.17694831830824</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46253244516098</v>
+        <v>27.33353643622193</v>
       </c>
       <c r="C24">
-        <v>14.91350445411484</v>
+        <v>9.536071056064856</v>
       </c>
       <c r="D24">
-        <v>7.949766868157961</v>
+        <v>5.422725576852025</v>
       </c>
       <c r="E24">
-        <v>6.247324869367073</v>
+        <v>9.411483510320135</v>
       </c>
       <c r="F24">
-        <v>77.77899317338475</v>
+        <v>70.87454428145489</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.999704979652971</v>
+        <v>10.31448927825708</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.657960803869508</v>
+        <v>11.20541198278502</v>
       </c>
       <c r="M24">
-        <v>14.07465573937399</v>
+        <v>21.2082761635007</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24495574386201</v>
+        <v>27.12310502110845</v>
       </c>
       <c r="C25">
-        <v>13.26726953583204</v>
+        <v>9.14038794276401</v>
       </c>
       <c r="D25">
-        <v>7.265729436577863</v>
+        <v>5.155645772767641</v>
       </c>
       <c r="E25">
-        <v>6.118947165596572</v>
+        <v>9.38604945364566</v>
       </c>
       <c r="F25">
-        <v>72.03601685446451</v>
+        <v>69.39077857013322</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.940739115545107</v>
+        <v>10.30154792998808</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.709469290160912</v>
+        <v>11.27200423760331</v>
       </c>
       <c r="M25">
-        <v>13.37830991836947</v>
+        <v>21.26246242929769</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_173/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.99883753119568</v>
+        <v>21.60110704626406</v>
       </c>
       <c r="C2">
-        <v>8.855210140476471</v>
+        <v>11.99079360833446</v>
       </c>
       <c r="D2">
-        <v>4.950014309062876</v>
+        <v>6.746036906718072</v>
       </c>
       <c r="E2">
-        <v>9.36672272388174</v>
+        <v>6.027518018987099</v>
       </c>
       <c r="F2">
-        <v>68.30292685251175</v>
+        <v>67.75288700026071</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.29205657185642</v>
+        <v>6.900746546140797</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.32679254332443</v>
+        <v>5.761461798232729</v>
       </c>
       <c r="M2">
-        <v>21.31983020993014</v>
+        <v>12.90496155775506</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.93403177437474</v>
+        <v>20.48088154915954</v>
       </c>
       <c r="C3">
-        <v>8.667509640607413</v>
+        <v>11.0804644646332</v>
       </c>
       <c r="D3">
-        <v>4.805650973200032</v>
+        <v>6.383072554163055</v>
       </c>
       <c r="E3">
-        <v>9.353242005042658</v>
+        <v>5.966713911994669</v>
       </c>
       <c r="F3">
-        <v>67.57095694723468</v>
+        <v>64.81376591816556</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.28563853136753</v>
+        <v>6.875264438260413</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.36752994719738</v>
+        <v>5.804736359690912</v>
       </c>
       <c r="M3">
-        <v>21.36956271853749</v>
+        <v>12.60753986810531</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.90388259944216</v>
+        <v>19.7911501823563</v>
       </c>
       <c r="C4">
-        <v>8.555596636862379</v>
+        <v>10.49778289145656</v>
       </c>
       <c r="D4">
-        <v>4.714771103798084</v>
+        <v>6.154848854245408</v>
       </c>
       <c r="E4">
-        <v>9.344773203179127</v>
+        <v>5.92974066651646</v>
       </c>
       <c r="F4">
-        <v>67.12492011574486</v>
+        <v>62.99207093148073</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.28170200439342</v>
+        <v>6.86027390619957</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.39432731145436</v>
+        <v>5.835063646306557</v>
       </c>
       <c r="M4">
-        <v>21.40543528162786</v>
+        <v>12.43617482163691</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.89402894073283</v>
+        <v>19.50986410850452</v>
       </c>
       <c r="C5">
-        <v>8.51091901792311</v>
+        <v>10.25418180264403</v>
       </c>
       <c r="D5">
-        <v>4.677211216438799</v>
+        <v>6.060511498143679</v>
       </c>
       <c r="E5">
-        <v>9.341273557804922</v>
+        <v>5.914737082910658</v>
       </c>
       <c r="F5">
-        <v>66.94413012048187</v>
+        <v>62.24573075750482</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.28009848419244</v>
+        <v>6.854310862295658</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.40569693194422</v>
+        <v>5.848338921243865</v>
       </c>
       <c r="M5">
-        <v>21.42139290878839</v>
+        <v>12.36913855448758</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.89253982718391</v>
+        <v>19.46315307278632</v>
       </c>
       <c r="C6">
-        <v>8.503558944484322</v>
+        <v>10.21335534328732</v>
       </c>
       <c r="D6">
-        <v>4.670943836673716</v>
+        <v>6.044767039511633</v>
       </c>
       <c r="E6">
-        <v>9.340689502033173</v>
+        <v>5.912248829431668</v>
       </c>
       <c r="F6">
-        <v>66.91417232428827</v>
+        <v>62.12157248920042</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.27983224811904</v>
+        <v>6.853328979156418</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.40761201876157</v>
+        <v>5.850597866371113</v>
       </c>
       <c r="M6">
-        <v>21.42412346553703</v>
+        <v>12.35817518056096</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.90373985277463</v>
+        <v>19.7873571216774</v>
       </c>
       <c r="C7">
-        <v>8.55499022549264</v>
+        <v>10.49452274768018</v>
       </c>
       <c r="D7">
-        <v>4.714266634325768</v>
+        <v>6.153581957972918</v>
       </c>
       <c r="E7">
-        <v>9.344726202757967</v>
+        <v>5.929538100596965</v>
       </c>
       <c r="F7">
-        <v>67.12247782044363</v>
+        <v>62.98202115494782</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.2816803766767</v>
+        <v>6.860192920466443</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.39447882517588</v>
+        <v>5.835239004817012</v>
       </c>
       <c r="M7">
-        <v>21.40564507281403</v>
+        <v>12.43525946737367</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.97449698402177</v>
+        <v>21.21538266571419</v>
       </c>
       <c r="C8">
-        <v>8.789852399693379</v>
+        <v>11.68172039865931</v>
       </c>
       <c r="D8">
-        <v>4.900724548217865</v>
+        <v>6.622002040772157</v>
       </c>
       <c r="E8">
-        <v>9.362114114223271</v>
+        <v>6.006460398076713</v>
       </c>
       <c r="F8">
-        <v>68.04991154310349</v>
+        <v>66.74315753167259</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.28984252091194</v>
+        <v>6.891812135108395</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.34046889989923</v>
+        <v>5.775585533929459</v>
       </c>
       <c r="M8">
-        <v>21.33586884454492</v>
+        <v>12.80005386745911</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.18926813475761</v>
+        <v>23.99353824989399</v>
       </c>
       <c r="C9">
-        <v>9.272940826567737</v>
+        <v>13.83104601284939</v>
       </c>
       <c r="D9">
-        <v>5.247080012838111</v>
+        <v>7.498488990657762</v>
       </c>
       <c r="E9">
-        <v>9.394708957835144</v>
+        <v>6.16159440362433</v>
       </c>
       <c r="F9">
-        <v>69.8901845378369</v>
+        <v>73.97828352632038</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.30590026089227</v>
+        <v>6.959993713773049</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.24868034554166</v>
+        <v>5.689825061878756</v>
       </c>
       <c r="M9">
-        <v>21.24149060556588</v>
+        <v>13.6065610661959</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.39254815304925</v>
+        <v>26.01890108804482</v>
       </c>
       <c r="C10">
-        <v>9.63637125822431</v>
+        <v>15.3166685989837</v>
       </c>
       <c r="D10">
-        <v>5.487965326197667</v>
+        <v>8.119078431236304</v>
       </c>
       <c r="E10">
-        <v>9.417765620330137</v>
+        <v>6.280538889465269</v>
       </c>
       <c r="F10">
-        <v>71.2481106251748</v>
+        <v>79.21541202019114</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.31775597773338</v>
+        <v>7.015418417884682</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.18980813921334</v>
+        <v>5.648092680873464</v>
       </c>
       <c r="M10">
-        <v>21.19816546756408</v>
+        <v>14.25832104307186</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.49465878587691</v>
+        <v>27.02911734670866</v>
       </c>
       <c r="C11">
-        <v>9.802490193877226</v>
+        <v>15.97641014241319</v>
       </c>
       <c r="D11">
-        <v>5.594271378806273</v>
+        <v>8.397321110341752</v>
       </c>
       <c r="E11">
-        <v>9.428066808892677</v>
+        <v>6.336382804566703</v>
       </c>
       <c r="F11">
-        <v>71.86558032317369</v>
+        <v>81.58679072187469</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.32316779890953</v>
+        <v>7.042213034818043</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.16487592193091</v>
+        <v>5.634321682417925</v>
       </c>
       <c r="M11">
-        <v>21.18412688121868</v>
+        <v>14.56894589988978</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.53468636228575</v>
+        <v>27.42060698224965</v>
       </c>
       <c r="C12">
-        <v>9.865425677904792</v>
+        <v>16.22434776269762</v>
       </c>
       <c r="D12">
-        <v>5.634031928620238</v>
+        <v>8.50221907286635</v>
       </c>
       <c r="E12">
-        <v>9.43194106613282</v>
+        <v>6.35784657347582</v>
       </c>
       <c r="F12">
-        <v>72.09923139851941</v>
+        <v>82.48400829996147</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.32522023419785</v>
+        <v>7.052629574073803</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.1556999225716</v>
+        <v>5.629915632609227</v>
       </c>
       <c r="M12">
-        <v>21.17962741773692</v>
+        <v>14.68875546241548</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52600563102514</v>
+        <v>27.33637752820204</v>
       </c>
       <c r="C13">
-        <v>9.85187135914593</v>
+        <v>16.17102663623891</v>
       </c>
       <c r="D13">
-        <v>5.625491171586563</v>
+        <v>8.479645925505478</v>
       </c>
       <c r="E13">
-        <v>9.431107851751626</v>
+        <v>6.353208658010242</v>
       </c>
       <c r="F13">
-        <v>72.04892020073682</v>
+        <v>82.29079463144279</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.32477806111901</v>
+        <v>7.050373418827339</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.15766434874583</v>
+        <v>5.6308275452277</v>
       </c>
       <c r="M13">
-        <v>21.18056012082165</v>
+        <v>14.66285234462243</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.49792476702464</v>
+        <v>27.06136447333575</v>
       </c>
       <c r="C14">
-        <v>9.80766780163197</v>
+        <v>15.99684337498366</v>
       </c>
       <c r="D14">
-        <v>5.597552559716158</v>
+        <v>8.405959681929714</v>
       </c>
       <c r="E14">
-        <v>9.428386076934377</v>
+        <v>6.338141857956484</v>
       </c>
       <c r="F14">
-        <v>71.88480713514204</v>
+        <v>81.66061510780771</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.32333658952548</v>
+        <v>7.04306432799475</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.16411569351626</v>
+        <v>5.63394261448923</v>
       </c>
       <c r="M14">
-        <v>21.18374033489761</v>
+        <v>14.57875792944581</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.48090080556745</v>
+        <v>26.89265322689235</v>
       </c>
       <c r="C15">
-        <v>9.780593313405776</v>
+        <v>15.88991838300549</v>
       </c>
       <c r="D15">
-        <v>5.58037417507296</v>
+        <v>8.36076805386741</v>
       </c>
       <c r="E15">
-        <v>9.426715460846156</v>
+        <v>6.328956498451202</v>
       </c>
       <c r="F15">
-        <v>71.78425687328188</v>
+        <v>81.27454058595383</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.32245406228907</v>
+        <v>7.038623851060054</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.16810185952449</v>
+        <v>5.635957914991372</v>
       </c>
       <c r="M15">
-        <v>21.18579469056924</v>
+        <v>14.52753718780777</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.38606680719595</v>
+        <v>25.95878496846226</v>
       </c>
       <c r="C16">
-        <v>9.625523651884436</v>
+        <v>15.27326369172024</v>
       </c>
       <c r="D16">
-        <v>5.480949946971476</v>
+        <v>8.100822158948665</v>
       </c>
       <c r="E16">
-        <v>9.417088673912771</v>
+        <v>6.276929747252597</v>
       </c>
       <c r="F16">
-        <v>71.20774084045136</v>
+        <v>79.0602779538693</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.31740271275294</v>
+        <v>7.013702627193743</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.19147467410657</v>
+        <v>5.649102397640212</v>
       </c>
       <c r="M16">
-        <v>21.1991971388075</v>
+        <v>14.23831719370179</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.33034042811799</v>
+        <v>25.43178505936531</v>
       </c>
       <c r="C17">
-        <v>9.530535201172455</v>
+        <v>14.89112522513957</v>
       </c>
       <c r="D17">
-        <v>5.41909965947002</v>
+        <v>7.94038630889404</v>
       </c>
       <c r="E17">
-        <v>9.411135215614816</v>
+        <v>6.245501526839567</v>
       </c>
       <c r="F17">
-        <v>70.85390506350286</v>
+        <v>77.69956539185388</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.31430893642217</v>
+        <v>6.998847422705086</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.20628629167107</v>
+        <v>5.658540622566393</v>
       </c>
       <c r="M17">
-        <v>21.20887240952101</v>
+        <v>14.06460316164612</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.29919691311299</v>
+        <v>25.12848998400454</v>
       </c>
       <c r="C18">
-        <v>9.475979732572858</v>
+        <v>14.66978725147481</v>
       </c>
       <c r="D18">
-        <v>5.383218151834826</v>
+        <v>7.847716173501096</v>
       </c>
       <c r="E18">
-        <v>9.40769328245508</v>
+        <v>6.22758349163181</v>
       </c>
       <c r="F18">
-        <v>70.6503718086049</v>
+        <v>76.91581743445933</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.31253120320322</v>
+        <v>6.990449039940478</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.21497961817071</v>
+        <v>5.664455916989486</v>
       </c>
       <c r="M18">
-        <v>21.21497102568563</v>
+        <v>13.96600658632283</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.28880907440381</v>
+        <v>25.02576178704028</v>
       </c>
       <c r="C19">
-        <v>9.45752445657614</v>
+        <v>14.59456952932544</v>
       </c>
       <c r="D19">
-        <v>5.371017374245121</v>
+        <v>7.816269305667134</v>
       </c>
       <c r="E19">
-        <v>9.406524858460626</v>
+        <v>6.22154215173208</v>
       </c>
       <c r="F19">
-        <v>70.58146025939027</v>
+        <v>76.65024449624333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.31192957672926</v>
+        <v>6.987629375564882</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.21795294534452</v>
+        <v>5.666540665113165</v>
       </c>
       <c r="M19">
-        <v>21.21712752355839</v>
+        <v>13.93284621473502</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.33617871176617</v>
+        <v>25.4879018346653</v>
       </c>
       <c r="C20">
-        <v>9.54063929237649</v>
+        <v>14.93196130032882</v>
       </c>
       <c r="D20">
-        <v>5.42571567213218</v>
+        <v>7.957504762651865</v>
       </c>
       <c r="E20">
-        <v>9.411770796634006</v>
+        <v>6.248830248023091</v>
       </c>
       <c r="F20">
-        <v>70.89157414663626</v>
+        <v>77.84452467012922</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.31463809259728</v>
+        <v>7.00041339527557</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.20469155791028</v>
+        <v>5.657485138864303</v>
       </c>
       <c r="M20">
-        <v>21.20778721868611</v>
+        <v>14.08295785243722</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.5061360892674</v>
+        <v>27.14219522648147</v>
       </c>
       <c r="C21">
-        <v>9.820651295967245</v>
+        <v>16.04805286302244</v>
       </c>
       <c r="D21">
-        <v>5.605772430462021</v>
+        <v>8.427614670246511</v>
       </c>
       <c r="E21">
-        <v>9.429186246581644</v>
+        <v>6.342558139662325</v>
       </c>
       <c r="F21">
-        <v>71.93301683302113</v>
+        <v>81.84572710477563</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.32375989728367</v>
+        <v>7.045203480877063</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.16221358198017</v>
+        <v>5.633005177576773</v>
       </c>
       <c r="M21">
-        <v>21.1827840571037</v>
+        <v>14.60339782518515</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.62512947706044</v>
+        <v>28.27835599034764</v>
       </c>
       <c r="C22">
-        <v>10.00379357003597</v>
+        <v>16.7667056507499</v>
       </c>
       <c r="D22">
-        <v>5.720553678965331</v>
+        <v>8.732219491132499</v>
       </c>
       <c r="E22">
-        <v>9.440413497980035</v>
+        <v>6.405703248979192</v>
       </c>
       <c r="F22">
-        <v>72.61260016147503</v>
+        <v>84.45684526768645</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.32973976651222</v>
+        <v>7.076075676046351</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.1359978157558</v>
+        <v>5.621754489067501</v>
       </c>
       <c r="M22">
-        <v>21.1712034055803</v>
+        <v>14.95636467189564</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.56090516870082</v>
+        <v>27.67287544808884</v>
       </c>
       <c r="C23">
-        <v>9.906061046902119</v>
+        <v>16.38397446681675</v>
       </c>
       <c r="D23">
-        <v>5.659565205970705</v>
+        <v>8.569839595152805</v>
       </c>
       <c r="E23">
-        <v>9.434435340030136</v>
+        <v>6.371802851475151</v>
       </c>
       <c r="F23">
-        <v>72.25003469091578</v>
+        <v>83.06325035247559</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.32654638898512</v>
+        <v>7.059436155757114</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.14984839454339</v>
+        <v>5.627302676640272</v>
       </c>
       <c r="M23">
-        <v>21.17694831830824</v>
+        <v>14.76674295347994</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.33353643622193</v>
+        <v>25.46253244516101</v>
       </c>
       <c r="C24">
-        <v>9.536071056064856</v>
+        <v>14.91350445411472</v>
       </c>
       <c r="D24">
-        <v>5.422725576852025</v>
+        <v>7.949766868157973</v>
       </c>
       <c r="E24">
-        <v>9.411483510320135</v>
+        <v>6.247324869366941</v>
       </c>
       <c r="F24">
-        <v>70.87454428145489</v>
+        <v>77.77899317338435</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.31448927825708</v>
+        <v>6.999704979653051</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.20541198278502</v>
+        <v>5.657960803869471</v>
       </c>
       <c r="M24">
-        <v>21.2082761635007</v>
+        <v>14.07465573937404</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.12310502110845</v>
+        <v>23.24495574386206</v>
       </c>
       <c r="C25">
-        <v>9.14038794276401</v>
+        <v>13.26726953583202</v>
       </c>
       <c r="D25">
-        <v>5.155645772767641</v>
+        <v>7.265729436577832</v>
       </c>
       <c r="E25">
-        <v>9.38604945364566</v>
+        <v>6.118947165596504</v>
       </c>
       <c r="F25">
-        <v>69.39077857013322</v>
+        <v>72.03601685446462</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.30154792998808</v>
+        <v>6.940739115545047</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.27200423760331</v>
+        <v>5.709469290160935</v>
       </c>
       <c r="M25">
-        <v>21.26246242929769</v>
+        <v>13.37830991836948</v>
       </c>
       <c r="N25">
         <v>0</v>
